--- a/Metpro.xlsx
+++ b/Metpro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAM\2023 - 1S\LogyAlg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/747bba01a798fcfd/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{816908FD-3EB0-46F7-A98D-F4AC3ABF6AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F43164F-F461-4530-B63C-73C90242A3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>Identificador</t>
   </si>
@@ -102,6 +102,249 @@
   </si>
   <si>
     <t>Formato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TipoMembresia </t>
+  </si>
+  <si>
+    <t>Global/local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global/local </t>
+  </si>
+  <si>
+    <t>Numdecedula</t>
+  </si>
+  <si>
+    <t>Global/Local</t>
+  </si>
+  <si>
+    <t>Numreferencia</t>
+  </si>
+  <si>
+    <t>nopuede estar vacio</t>
+  </si>
+  <si>
+    <t>16 caracteres</t>
+  </si>
+  <si>
+    <t>numero valido</t>
+  </si>
+  <si>
+    <t>que tenga 8 digitos</t>
+  </si>
+  <si>
+    <t>no puede estar vacio</t>
+  </si>
+  <si>
+    <t>tiene que ser una opcion valida</t>
+  </si>
+  <si>
+    <t>Numfecha</t>
+  </si>
+  <si>
+    <t>fechaexistente</t>
+  </si>
+  <si>
+    <t>Nombreadmin</t>
+  </si>
+  <si>
+    <t>Solocuentaspermitidas</t>
+  </si>
+  <si>
+    <t>contraseñaadmin</t>
+  </si>
+  <si>
+    <t>contravalida</t>
+  </si>
+  <si>
+    <t>minimounamayuscula</t>
+  </si>
+  <si>
+    <t>correocliente</t>
+  </si>
+  <si>
+    <t>NombreCliente</t>
+  </si>
+  <si>
+    <t>ApellidoCliente</t>
+  </si>
+  <si>
+    <t>correovalido</t>
+  </si>
+  <si>
+    <t>Se Ingresa apellido de cliente y se guarda</t>
+  </si>
+  <si>
+    <t>Se Ingresa menbresia de cliente y se guarda el tipo</t>
+  </si>
+  <si>
+    <t>Se Ingresa numdecedula de cliente y se guarda</t>
+  </si>
+  <si>
+    <t>Se Ingresa fecha y se queda guardada</t>
+  </si>
+  <si>
+    <t>Se Ingresa numreferencia de cliente y se guarda</t>
+  </si>
+  <si>
+    <t>GuardarNombredeCliente</t>
+  </si>
+  <si>
+    <t>GuardarApellidodeCliente</t>
+  </si>
+  <si>
+    <t>GuardarMenbresiadeCliente</t>
+  </si>
+  <si>
+    <t>GuardarCorreoCliente</t>
+  </si>
+  <si>
+    <t>Guarda y recuerda la cuenta del Admin para revisar la informacion de los clientes</t>
+  </si>
+  <si>
+    <t>Guarda los caracteres validos de la contraseña</t>
+  </si>
+  <si>
+    <t>Guarda el correo del cliente para enviar mensajes de promociones y recuerda la fecha de pago para el cliente</t>
+  </si>
+  <si>
+    <t>NumCedula</t>
+  </si>
+  <si>
+    <t>FechaIngreso</t>
+  </si>
+  <si>
+    <t>MenbresiaTipo</t>
+  </si>
+  <si>
+    <t>CuentaAdmin</t>
+  </si>
+  <si>
+    <t>ContraAdmin</t>
+  </si>
+  <si>
+    <t>CorreoCliente</t>
+  </si>
+  <si>
+    <t>GuardarNumCeduladeCliente</t>
+  </si>
+  <si>
+    <t>GuardarFechadeIngreso</t>
+  </si>
+  <si>
+    <t>GuardarNumReferenciadeCliente</t>
+  </si>
+  <si>
+    <t>GuardarNombreAdmin</t>
+  </si>
+  <si>
+    <t>GuardarContraAdmin</t>
+  </si>
+  <si>
+    <t>MostrarUsuarioGuardado</t>
+  </si>
+  <si>
+    <t>PresentarDatosCliente</t>
+  </si>
+  <si>
+    <t>MuestraLosDatosDelCliente</t>
+  </si>
+  <si>
+    <t>PresentarPromocion</t>
+  </si>
+  <si>
+    <t>SeComparteMedianteLosCorreosUnaPromocionLaFechaYHora</t>
+  </si>
+  <si>
+    <t>PermiteEditarlosdatosdelClienteATodosLosAdministradores</t>
+  </si>
+  <si>
+    <t>PermiteAlosAdminEliminarLosDatosDelClienteCuandoCancelaElPlan</t>
+  </si>
+  <si>
+    <t>FechaNacimiento</t>
+  </si>
+  <si>
+    <t>FechaValida</t>
+  </si>
+  <si>
+    <t>PromocionCumple</t>
+  </si>
+  <si>
+    <t>SeRegalaUnProductoDeLaSeleccionDelGymDeMenosDe10DolaresAlCumplañero</t>
+  </si>
+  <si>
+    <t>GuardarFechadeRegistro</t>
+  </si>
+  <si>
+    <t>GuardarNumReferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> addCliente</t>
+  </si>
+  <si>
+    <t>showCliente</t>
+  </si>
+  <si>
+    <t>Muestra los usuarios ya añadidos al seleccionar la opcion 1</t>
+  </si>
+  <si>
+    <t>isCliente</t>
+  </si>
+  <si>
+    <t>sirve para confirmar que el usuario añadido es valido</t>
+  </si>
+  <si>
+    <t>startCliente</t>
+  </si>
+  <si>
+    <t>Inicia los valores de clientes</t>
+  </si>
+  <si>
+    <t>getCliente</t>
+  </si>
+  <si>
+    <t>updateCliente</t>
+  </si>
+  <si>
+    <t>deleteCliente</t>
+  </si>
+  <si>
+    <t>Se añade un nuevo usuario a la plataforma</t>
+  </si>
+  <si>
+    <t>saveClientes</t>
+  </si>
+  <si>
+    <t>guarda a los clientes recientemente añadidos</t>
+  </si>
+  <si>
+    <t>readClientes</t>
+  </si>
+  <si>
+    <t>calcUltReg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirve para identificar los datos del cliente </t>
+  </si>
+  <si>
+    <t>Busca a los clientes por id</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>muestra todos los datos del progrma</t>
+  </si>
+  <si>
+    <t>calcula el tiempo en el que se expira la menbresia del cliente en base al tipo de menbresia pagada</t>
+  </si>
+  <si>
+    <t>GuardarNombreCliente</t>
+  </si>
+  <si>
+    <t>Se ingresa y guarda el nombre del cliente</t>
   </si>
 </sst>
 </file>
@@ -289,15 +532,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -306,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,6 +588,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FC8A7B-9D7F-4C6C-8AD8-3971444575AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="438150"/>
+          <a:ext cx="7772400" cy="5651445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,11 +911,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I1048573"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" zoomScale="129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
@@ -635,17 +930,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -687,192 +982,338 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="1048569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048569" s="1" t="s">
@@ -927,25 +1368,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -961,6 +1402,190 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -975,25 +1600,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1005,47 +1630,74 @@
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1054,5 +1706,6 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>